--- a/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
@@ -2436,7 +2436,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1517, PARK RIDGE</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2543,7 +2543,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1517, PARK RIDGE</t>
+          <t>1775 DEMPSTER ST, STAFF LOUNGE T01113</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2590,7 +2590,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>1775 DEMPSTER ST, STAFF LOUNGE T01113</t>
+          <t>https://maps.app.goo.gl/5Vv2oKSPEeHWpZVd6</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2637,7 +2637,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5Vv2oKSPEeHWpZVd6</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -3146,7 +3146,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3205,7 +3205,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3264,7 +3264,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3311,7 +3311,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>

--- a/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
@@ -1931,7 +1931,8 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2002,11 +2003,7 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>5:45 am meet for Grafton crew</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2027,7 +2024,11 @@
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2061,9 +2062,21 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
@@ -2123,19 +2136,15 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
@@ -2169,12 +2178,13 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2195,19 +2205,15 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Driver</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
@@ -2233,9 +2239,21 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
@@ -2254,12 +2272,12 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2272,9 +2290,22 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store,
+3rd Scan</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
@@ -2297,19 +2328,15 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ethan</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>w/ Carlie</t>
-        </is>
-      </c>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
@@ -2344,12 +2371,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2359,11 +2386,7 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -2399,12 +2422,12 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -2428,7 +2451,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2454,12 +2477,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2484,7 +2507,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>METRO #128, MIDDLETON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2510,12 +2533,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2535,7 +2558,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>6800 CENTURY AVENUE</t>
+          <t>METRO #128, MIDDLETON</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2563,16 +2586,8 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -2582,7 +2597,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iCDNmqxp1Do</t>
+          <t>6800 CENTURY AVENUE</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2610,16 +2625,8 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
@@ -2629,7 +2636,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>4:15 am meet for Grafton crew</t>
+          <t>https://goo.gl/maps/iCDNmqxp1Do</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2693,7 +2700,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2754,7 +2765,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2775,8 +2786,8 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry</t>
+          <t>@ Store,
+work w/ Aivy</t>
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
@@ -2815,7 +2826,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2831,10 +2842,15 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Ethan</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd Scan</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -2862,7 +2878,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2918,7 +2934,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION 51 LLC, JANESVILLE</t>
+          <t>1620 W US HWY 14</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2973,7 +2989,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1620 W US HWY 14</t>
+          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3028,7 +3044,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AMes3hiS3DN1CYZx6</t>
+          <t xml:space="preserve">*Samantha from Dhillon's will be at this inven to assist with the Liq B/R count </t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -3073,11 +3089,7 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">*Samantha from Dhillon's will be at this inven to assist with the Liq B/R count </t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3119,9 +3131,21 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3168,17 +3192,17 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -3227,12 +3251,12 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3286,12 +3310,12 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3333,12 +3357,12 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3376,12 +3400,12 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3429,21 +3453,9 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -3515,12 +3527,13 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Financial</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3548,7 +3561,11 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -3566,7 +3583,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3601,7 +3618,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3621,7 +3638,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -3656,7 +3673,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>SULLIVAN'S FOODS #279, STOCKTON</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3676,7 +3693,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3711,7 +3728,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>SULLIVAN'S FOODS #279, STOCKTON</t>
+          <t>103 W NORTH AVE</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3731,7 +3748,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3766,7 +3783,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>103 W NORTH AVE</t>
+          <t>https://goo.gl/maps/qfCDC9wyh9GVdu7w7</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3786,7 +3803,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3819,11 +3836,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/qfCDC9wyh9GVdu7w7</t>
-        </is>
-      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -3841,7 +3854,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3873,9 +3886,21 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -3885,9 +3910,22 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Aivy</t>
+        </is>
+      </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
@@ -3914,17 +3952,17 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H65" t="inlineStr"/>
@@ -3965,12 +4003,12 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4016,12 +4054,12 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4055,12 +4093,12 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4094,17 +4132,18 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Financial</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
@@ -4133,7 +4172,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">

--- a/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
@@ -1205,7 +1205,8 @@
       <c r="S17" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+White Camry,
+work w/ Keshawn</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1339,7 +1340,11 @@
           <t>Paul</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
@@ -1486,21 +1491,9 @@
       <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1513,7 +1506,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1848,9 +1841,21 @@
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1903,9 +1908,21 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -1932,7 +1949,7 @@
       <c r="S27" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+work w/ Lorena</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -1956,11 +1973,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET OFFICE</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
@@ -2007,11 +2020,7 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
@@ -2081,7 +2090,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>5:15 AM MEET OFFICE</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2149,7 +2158,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, ASHIPPUN</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2178,7 +2187,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keshawn</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2218,7 +2227,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>N649 STATE RD 67</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2246,12 +2255,13 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2285,7 +2295,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+          <t>DHILLON'S BP, ASHIPPUN</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2307,9 +2317,21 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2341,7 +2363,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>*Check in with Franklin PNS after the store please</t>
+          <t>N649 STATE RD 67</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2351,11 +2373,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2382,7 +2400,11 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+        </is>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2390,11 +2412,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
@@ -2432,21 +2450,13 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>*Check in with Franklin PNS after the store please</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2459,7 +2469,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2487,22 +2497,9 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2515,7 +2512,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1517, PARK RIDGE</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2545,15 +2542,19 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2566,7 +2567,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>1775 DEMPSTER ST, STAFF LOUNGE T01113</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2590,9 +2591,22 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2605,7 +2619,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5Vv2oKSPEeHWpZVd6</t>
+          <t>AURORA OUTPATIENT RX #1517, PARK RIDGE</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2629,8 +2643,16 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2644,7 +2666,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>1775 DEMPSTER ST, STAFF LOUNGE T01113</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2669,11 +2691,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
@@ -2681,7 +2699,11 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/5Vv2oKSPEeHWpZVd6</t>
+        </is>
+      </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2708,11 +2730,7 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
@@ -2731,21 +2749,13 @@
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>*NEW LOCATION</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
@@ -2771,7 +2781,11 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
@@ -2791,22 +2805,9 @@
         </is>
       </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
@@ -2832,7 +2833,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
@@ -2854,15 +2859,19 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -2903,9 +2912,22 @@
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -2959,8 +2981,16 @@
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
@@ -3015,11 +3045,7 @@
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
@@ -3070,11 +3096,7 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3115,7 +3137,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3170,7 +3192,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3229,7 +3251,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3288,7 +3310,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3335,7 +3357,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3380,7 +3402,11 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3426,21 +3452,13 @@
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>*SALE INVENTORY</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3469,21 +3487,9 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>Nick</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -3522,18 +3528,17 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Financial</t>
+          <t>Sante Fe, Equip</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3578,12 +3583,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -3633,17 +3638,18 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Financial</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3688,12 +3694,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3743,12 +3749,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3798,12 +3804,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3849,12 +3855,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3912,18 +3918,17 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Aivy</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T64" t="inlineStr"/>
@@ -3974,9 +3979,21 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
@@ -4025,9 +4042,22 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Aivy</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>

--- a/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
@@ -540,24 +540,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,24 +611,56 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 8,SB 10</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -602,8 +674,16 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -614,12 +694,28 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 7, SB 10</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -1469,12 +1565,7 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+      <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1506,7 +1597,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1565,7 +1656,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1638,7 +1729,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1707,7 +1798,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1776,10 +1867,14 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
@@ -1848,7 +1943,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1908,21 +2003,9 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -2020,7 +2103,11 @@
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>5:15 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
@@ -2090,7 +2177,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5:15 AM MEET OFFICE</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2158,7 +2245,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2227,7 +2314,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>DHILLON'S BP, ASHIPPUN</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2295,7 +2382,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, ASHIPPUN</t>
+          <t>N649 STATE RD 67</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2363,7 +2450,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>N649 STATE RD 67</t>
+          <t>https://goo.gl/maps/ma91pJMETDK2</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2402,7 +2489,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ma91pJMETDK2</t>
+          <t>*Check in with Franklin PNS after the store please</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2451,11 +2538,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>*Check in with Franklin PNS after the store please</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2469,7 +2552,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>5:00 AM OFFICE MEET</t>
+          <t>5:15 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2497,9 +2580,21 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
@@ -2512,7 +2607,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2542,19 +2637,15 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
@@ -2593,12 +2684,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2643,16 +2734,8 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
@@ -2730,7 +2813,11 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
@@ -2783,7 +2870,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2806,7 +2893,11 @@
       </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>The Rx is in a temporary spot at this site, so the site manager (Joel)</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2833,11 +2924,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
@@ -2857,21 +2944,13 @@
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>wants to meet us at the front door to help get you to the right place</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
@@ -2912,22 +2991,9 @@
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -2983,15 +3049,19 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -3035,7 +3105,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3044,9 +3114,22 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -3086,7 +3169,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3125,7 +3208,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3135,11 +3218,7 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3180,7 +3259,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Savannah</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3192,7 +3271,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3239,7 +3318,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3251,7 +3330,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3291,26 +3370,14 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3357,7 +3424,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3398,13 +3465,17 @@
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3447,7 +3518,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3455,7 +3526,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>*SALE INVENTORY</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3480,15 +3551,15 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>*SALE INVENTORY</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
@@ -3526,21 +3597,9 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
@@ -3583,17 +3642,17 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe, Equip</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -3638,18 +3697,17 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Financial</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3660,7 +3718,7 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="W59" t="inlineStr">
@@ -3694,17 +3752,18 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Financial</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -3715,7 +3774,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Jacqui</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
@@ -3749,12 +3808,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3770,7 +3829,7 @@
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Jacqui</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
@@ -3804,12 +3863,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3825,7 +3884,7 @@
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
@@ -3855,12 +3914,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3876,7 +3935,7 @@
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
@@ -3918,12 +3977,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -3939,7 +3998,7 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -3981,12 +4040,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4044,18 +4103,17 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Aivy</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -4106,9 +4164,22 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Aivy</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>

--- a/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
+++ b/09-08-24 to 09-14-24 Milwaukee Schedule.xlsx
@@ -1621,10 +1621,15 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
@@ -1685,13 +1690,14 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>Driver,
+Optima,
+Supv Rx</t>
         </is>
       </c>
       <c r="T22" t="inlineStr"/>
@@ -1753,16 +1759,10 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1774,7 +1774,12 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>@ Store,
+After Aurora</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1822,7 +1827,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1899,7 +1904,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1971,10 +1976,15 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Lorena</t>
+        </is>
+      </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -2026,13 +2036,12 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Lorena</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
@@ -2078,12 +2087,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2133,13 +2143,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2206,12 +2215,13 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Keshawn</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd week</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2274,7 +2284,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2342,13 +2352,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd week</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2404,21 +2413,9 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2499,7 +2496,11 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
@@ -2552,7 +2553,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2607,7 +2608,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2658,7 +2659,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1517, PARK RIDGE</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2710,7 +2711,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1517, PARK RIDGE</t>
+          <t>1775 DEMPSTER ST, STAFF LOUNGE T01113</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2749,7 +2750,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>1775 DEMPSTER ST, STAFF LOUNGE T01113</t>
+          <t>https://maps.app.goo.gl/5Vv2oKSPEeHWpZVd6</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2784,7 +2785,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5Vv2oKSPEeHWpZVd6</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2839,7 +2840,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>The Rx is in a temporary spot at this site, so the site manager (Joel)</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2895,7 +2896,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>The Rx is in a temporary spot at this site, so the site manager (Joel)</t>
+          <t>wants to meet us at the front door to help get you to the right place</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2945,11 +2946,7 @@
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>wants to meet us at the front door to help get you to the right place</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
@@ -2991,9 +2988,21 @@
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
@@ -3049,17 +3058,18 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3114,22 +3124,9 @@
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
@@ -3218,7 +3215,11 @@
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>4:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
@@ -3271,7 +3272,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>4:15 AM OFFICE LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3330,7 +3331,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3377,7 +3378,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3424,7 +3425,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>PIERCE'S EXPRESS MARKET, BARABOO (GROC + C-STORE)</t>
+          <t>935 8TH ST</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3475,7 +3476,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>935 8TH ST</t>
+          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3526,7 +3527,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/GhH3B9P8DGn</t>
+          <t>*SALE INVENTORY</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3555,11 +3556,7 @@
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>*SALE INVENTORY</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
@@ -3597,9 +3594,21 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
@@ -3642,17 +3651,17 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Sante Fe, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -3697,17 +3706,18 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Nick</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Financial</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3752,18 +3762,17 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>@ Store,
-2nd Financial</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T60" t="inlineStr"/>
@@ -3808,12 +3817,12 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -3863,12 +3872,12 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -3914,12 +3923,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -3977,12 +3986,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -4040,12 +4049,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
@@ -4103,17 +4112,18 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Aivy</t>
         </is>
       </c>
       <c r="T66" t="inlineStr"/>
@@ -4164,22 +4174,9 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Aivy</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
